--- a/scrapping/Anais/Ortopedie/Orthopedie_AnaisProduct.xlsx
+++ b/scrapping/Anais/Ortopedie/Orthopedie_AnaisProduct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="226">
   <si>
     <t>Produit</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Lien</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>ATHENAX HERDEGEN OREILLER BAMBOU</t>
   </si>
   <si>
@@ -271,10 +274,7 @@
     <t>169.300 TND TTC</t>
   </si>
   <si>
-    <t>205.000 TND 170.000 TND TTC</t>
-  </si>
-  <si>
-    <t>159.000 TND 135.000 TND TTC</t>
+    <t>159.000 TND TTC</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -651,6 +651,162 @@
   </si>
   <si>
     <t>https://anais.tn/produit/scholl-sofia/</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/oreillers-en-bambou-confort-souple-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/bori-blue.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/emilia-noir-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/eni-rouge.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/fc02-beige-e1593770530230.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/f07-beige-e1593370803399.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/fc07-bleu2.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/06/fc07-poudré.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/lia-bleu.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/mike-marron.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/anais-para-canne-adulte-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/anais-para-canne-quadripode-min-e1633535510563.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/gibaud-bandouillere-poche-1421257252-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/gibaud-ceinture-lombaire-anatomique-consiel_1422635208-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/gibaud-6098-ceinture-thorax-homme-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/gibaud-action-v-double-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/a90105f3-f9e3-4997-8ec5-81571b6e904d_La-femme-finesse-Collants-bas-collants-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/3664696000903_20190313_02-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/images-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/3d594ca365f9219af0111687f290ccdd843d3416-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/86c2a06d-159a-464a-9aab-da69113deee5_pack-genugib-ROTU-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/gibaud-genouilliere-anatomique-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/fea43f96-11a9-4b9f-bef4-f6609611765a_action-V-double-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/gibaud-poignet-pouce-maintien-1422635152-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/3d0c7821-cda8-42db-a5fc-aa958db9c4e2_6683-Manugib-Rhiza-Fonction-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/f554bdc9-7118-4a83-b1f7-325d6a22d034_Manugib-Rhizarthrose-Immobilisation-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/09/téléchargement-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_143342.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_143331-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_1512211-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_135629-1-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_1520171-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_1534111-compressed-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_1534191-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2021/03/20210312_1455151-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/New-Vestmann-scholl-f260281004-31-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/new-vestmann-low-scholl-f2684420-31-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/Taty-scholl-f2684510-31-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/cecilia-sandal-scholl-f2782210-31.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/Clog-Evo-scholl-f2656310-31-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/cynthia-scholl-f2784310-11.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/F274341047_1_1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/daphne-scholl-f2741410-31.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/daphne-scholl-f2741410-31-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/ella-cross-scholl-f2784410-11.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/gandia-scholl-f2779610-31.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/lusaka-scholl-f2774910-11.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/lusaka-scholl-f2774911-11.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/new-bogota-wedge-scholl-f2660710-11.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/new-bogota-wedge-scholl-f2660710-11-2.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/new-bogota-wedge-scholl-f2660710-11-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/sofia-scholl-f2774312-11-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1021,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,13 +1196,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -1054,13 +1213,16 @@
       <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -1068,13 +1230,16 @@
       <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -1082,13 +1247,16 @@
       <c r="D4" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -1096,13 +1264,16 @@
       <c r="D5" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -1110,13 +1281,16 @@
       <c r="D6" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -1124,13 +1298,16 @@
       <c r="D7" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -1138,13 +1315,16 @@
       <c r="D8" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -1152,13 +1332,16 @@
       <c r="D9" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -1166,13 +1349,16 @@
       <c r="D10" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -1180,13 +1366,16 @@
       <c r="D11" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
@@ -1194,13 +1383,16 @@
       <c r="D12" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -1208,13 +1400,16 @@
       <c r="D13" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>90</v>
@@ -1222,13 +1417,16 @@
       <c r="D14" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -1236,13 +1434,16 @@
       <c r="D15" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>92</v>
@@ -1250,13 +1451,16 @@
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
@@ -1264,13 +1468,16 @@
       <c r="D17" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -1278,13 +1485,16 @@
       <c r="D18" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
         <v>95</v>
@@ -1292,10 +1502,13 @@
       <c r="D19" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>96</v>
@@ -1303,13 +1516,16 @@
       <c r="D20" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>97</v>
@@ -1317,13 +1533,16 @@
       <c r="D21" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
@@ -1331,13 +1550,16 @@
       <c r="D22" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>99</v>
@@ -1345,13 +1567,16 @@
       <c r="D23" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>100</v>
@@ -1359,13 +1584,16 @@
       <c r="D24" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>101</v>
@@ -1373,13 +1601,16 @@
       <c r="D25" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>102</v>
@@ -1387,13 +1618,16 @@
       <c r="D26" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
@@ -1401,13 +1635,16 @@
       <c r="D27" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>104</v>
@@ -1415,13 +1652,16 @@
       <c r="D28" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>105</v>
@@ -1429,13 +1669,16 @@
       <c r="D29" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>
@@ -1443,13 +1686,16 @@
       <c r="D30" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>88</v>
@@ -1457,13 +1703,16 @@
       <c r="D31" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>88</v>
@@ -1471,13 +1720,16 @@
       <c r="D32" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>88</v>
@@ -1485,13 +1737,16 @@
       <c r="D33" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -1499,13 +1754,16 @@
       <c r="D34" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>88</v>
@@ -1513,13 +1771,16 @@
       <c r="D35" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>88</v>
@@ -1527,13 +1788,16 @@
       <c r="D36" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>88</v>
@@ -1541,13 +1805,16 @@
       <c r="D37" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>88</v>
@@ -1555,10 +1822,13 @@
       <c r="D38" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>107</v>
@@ -1566,13 +1836,16 @@
       <c r="D39" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>108</v>
@@ -1580,10 +1853,13 @@
       <c r="D40" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>109</v>
@@ -1591,13 +1867,16 @@
       <c r="D41" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>110</v>
@@ -1605,10 +1884,13 @@
       <c r="D42" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>111</v>
@@ -1616,13 +1898,16 @@
       <c r="D43" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>112</v>
@@ -1630,10 +1915,13 @@
       <c r="D44" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>113</v>
@@ -1641,13 +1929,16 @@
       <c r="D45" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>114</v>
@@ -1655,13 +1946,16 @@
       <c r="D46" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>114</v>
@@ -1669,13 +1963,16 @@
       <c r="D47" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
         <v>115</v>
@@ -1683,13 +1980,16 @@
       <c r="D48" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>116</v>
@@ -1697,13 +1997,16 @@
       <c r="D49" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
         <v>117</v>
@@ -1711,13 +2014,16 @@
       <c r="D50" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
         <v>117</v>
@@ -1725,13 +2031,16 @@
       <c r="D51" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
         <v>118</v>
@@ -1739,13 +2048,16 @@
       <c r="D52" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>118</v>
@@ -1753,10 +2065,13 @@
       <c r="D53" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>118</v>
@@ -1764,10 +2079,13 @@
       <c r="D54" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>86</v>
@@ -1777,64 +2095,119 @@
       </c>
       <c r="D55" s="2" t="s">
         <v>173</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="D12" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="D13" r:id="rId22"/>
+    <hyperlink ref="E13" r:id="rId23"/>
+    <hyperlink ref="D14" r:id="rId24"/>
+    <hyperlink ref="E14" r:id="rId25"/>
+    <hyperlink ref="D15" r:id="rId26"/>
+    <hyperlink ref="E15" r:id="rId27"/>
+    <hyperlink ref="D16" r:id="rId28"/>
+    <hyperlink ref="E16" r:id="rId29"/>
+    <hyperlink ref="D17" r:id="rId30"/>
+    <hyperlink ref="E17" r:id="rId31"/>
+    <hyperlink ref="D18" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="D19" r:id="rId34"/>
+    <hyperlink ref="D20" r:id="rId35"/>
+    <hyperlink ref="E20" r:id="rId36"/>
+    <hyperlink ref="D21" r:id="rId37"/>
+    <hyperlink ref="E21" r:id="rId38"/>
+    <hyperlink ref="D22" r:id="rId39"/>
+    <hyperlink ref="E22" r:id="rId40"/>
+    <hyperlink ref="D23" r:id="rId41"/>
+    <hyperlink ref="E23" r:id="rId42"/>
+    <hyperlink ref="D24" r:id="rId43"/>
+    <hyperlink ref="E24" r:id="rId44"/>
+    <hyperlink ref="D25" r:id="rId45"/>
+    <hyperlink ref="E25" r:id="rId46"/>
+    <hyperlink ref="D26" r:id="rId47"/>
+    <hyperlink ref="E26" r:id="rId48"/>
+    <hyperlink ref="D27" r:id="rId49"/>
+    <hyperlink ref="E27" r:id="rId50"/>
+    <hyperlink ref="D28" r:id="rId51"/>
+    <hyperlink ref="E28" r:id="rId52"/>
+    <hyperlink ref="D29" r:id="rId53"/>
+    <hyperlink ref="E29" r:id="rId54"/>
+    <hyperlink ref="D30" r:id="rId55"/>
+    <hyperlink ref="E30" r:id="rId56"/>
+    <hyperlink ref="D31" r:id="rId57"/>
+    <hyperlink ref="E31" r:id="rId58"/>
+    <hyperlink ref="D32" r:id="rId59"/>
+    <hyperlink ref="E32" r:id="rId60"/>
+    <hyperlink ref="D33" r:id="rId61"/>
+    <hyperlink ref="E33" r:id="rId62"/>
+    <hyperlink ref="D34" r:id="rId63"/>
+    <hyperlink ref="E34" r:id="rId64"/>
+    <hyperlink ref="D35" r:id="rId65"/>
+    <hyperlink ref="E35" r:id="rId66"/>
+    <hyperlink ref="D36" r:id="rId67"/>
+    <hyperlink ref="E36" r:id="rId68"/>
+    <hyperlink ref="D37" r:id="rId69"/>
+    <hyperlink ref="E37" r:id="rId70"/>
+    <hyperlink ref="D38" r:id="rId71"/>
+    <hyperlink ref="E38" r:id="rId72"/>
+    <hyperlink ref="D39" r:id="rId73"/>
+    <hyperlink ref="E39" r:id="rId74"/>
+    <hyperlink ref="D40" r:id="rId75"/>
+    <hyperlink ref="E40" r:id="rId76"/>
+    <hyperlink ref="D41" r:id="rId77"/>
+    <hyperlink ref="E41" r:id="rId78"/>
+    <hyperlink ref="D42" r:id="rId79"/>
+    <hyperlink ref="E42" r:id="rId80"/>
+    <hyperlink ref="D43" r:id="rId81"/>
+    <hyperlink ref="E43" r:id="rId82"/>
+    <hyperlink ref="D44" r:id="rId83"/>
+    <hyperlink ref="E44" r:id="rId84"/>
+    <hyperlink ref="D45" r:id="rId85"/>
+    <hyperlink ref="E45" r:id="rId86"/>
+    <hyperlink ref="D46" r:id="rId87"/>
+    <hyperlink ref="E46" r:id="rId88"/>
+    <hyperlink ref="D47" r:id="rId89"/>
+    <hyperlink ref="E47" r:id="rId90"/>
+    <hyperlink ref="D48" r:id="rId91"/>
+    <hyperlink ref="E48" r:id="rId92"/>
+    <hyperlink ref="D49" r:id="rId93"/>
+    <hyperlink ref="E49" r:id="rId94"/>
+    <hyperlink ref="D50" r:id="rId95"/>
+    <hyperlink ref="E50" r:id="rId96"/>
+    <hyperlink ref="D51" r:id="rId97"/>
+    <hyperlink ref="E51" r:id="rId98"/>
+    <hyperlink ref="D52" r:id="rId99"/>
+    <hyperlink ref="E52" r:id="rId100"/>
+    <hyperlink ref="D53" r:id="rId101"/>
+    <hyperlink ref="E53" r:id="rId102"/>
+    <hyperlink ref="D54" r:id="rId103"/>
+    <hyperlink ref="E54" r:id="rId104"/>
+    <hyperlink ref="D55" r:id="rId105"/>
+    <hyperlink ref="E55" r:id="rId106"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
